--- a/data-raw/NutrientData/nutrientDetails/comp_fct_beans_cbean wphytate.xlsx
+++ b/data-raw/NutrientData/nutrientDetails/comp_fct_beans_cbean wphytate.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-29020" yWindow="-1940" windowWidth="28200" windowHeight="10340"/>
+    <workbookView xWindow="480" yWindow="4400" windowWidth="28200" windowHeight="10340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
